--- a/biology/Botanique/Dracocéphale_d'Autriche/Dracocéphale_d'Autriche.xlsx
+++ b/biology/Botanique/Dracocéphale_d'Autriche/Dracocéphale_d'Autriche.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dracoc%C3%A9phale_d%27Autriche</t>
+          <t>Dracocéphale_d'Autriche</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le dracocéphale d’Autriche[réf. nécessaire] (Dracocephalum austriacum) est une plante vivace. C'est une orophyte sud-est européenne-caucasienne (substeppique). En France on ne la rencontre que dans les Alpes (étages montagnard et subalpin)[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le dracocéphale d’Autriche[réf. nécessaire] (Dracocephalum austriacum) est une plante vivace. C'est une orophyte sud-est européenne-caucasienne (substeppique). En France on ne la rencontre que dans les Alpes (étages montagnard et subalpin).
 C’est une plante haute de 20 à 50 cm. Les tiges sont velues, dressées et très feuillées.
 Les feuilles sont découpées en 3 à 7 lanières, elles sont très velues et se terminent par une longue soie.
-L’inflorescence est formée de 1 à 6 fleurs qui forment un épi plus ou moins dense. Les fleurs sont violet foncé[3].
+L’inflorescence est formée de 1 à 6 fleurs qui forment un épi plus ou moins dense. Les fleurs sont violet foncé.
 Le fruit est formé de 4 akènes lisses.
 </t>
         </is>
